--- a/游戏公式.xlsx
+++ b/游戏公式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EC28C-2611-411D-B5E2-190BCB231F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDBE0C2-F0F9-49CC-911C-E41B87D7441C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37470" windowHeight="18120" xr2:uid="{7B68912B-92B0-4A51-ACB3-74D7EC697827}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="37470" windowHeight="18120" activeTab="1" xr2:uid="{7B68912B-92B0-4A51-ACB3-74D7EC697827}"/>
   </bookViews>
   <sheets>
     <sheet name="经验" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   </sheetPr>
   <dimension ref="C1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1867,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="I2" s="2">
         <f>B2+(ROUND((D2/E2+H2)*D2,0))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2">
         <f>C2+ROUND((D2/F2+G2)*2.2*D2,0)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I3" s="2">
         <f>HP常数+(ROUND((D2/职业HP基值+职业HP系数)*D2,0))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <f>C3+ROUND((D3/F3)*2.2*D3,0)</f>
@@ -1986,8 +1986,12 @@
       <c r="B4" s="1">
         <v>14</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>22</v>
+      </c>
       <c r="E4" s="1">
         <v>4</v>
       </c>
@@ -1998,11 +2002,11 @@
       </c>
       <c r="I4" s="2">
         <f>B4+(ROUND((D2/E4+H4)*D2,0))</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2">
         <f>ROUND(D4*3.5,0)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/游戏公式.xlsx
+++ b/游戏公式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDBE0C2-F0F9-49CC-911C-E41B87D7441C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EC28C-2611-411D-B5E2-190BCB231F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="37470" windowHeight="18120" activeTab="1" xr2:uid="{7B68912B-92B0-4A51-ACB3-74D7EC697827}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37470" windowHeight="18120" xr2:uid="{7B68912B-92B0-4A51-ACB3-74D7EC697827}"/>
   </bookViews>
   <sheets>
     <sheet name="经验" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   </sheetPr>
   <dimension ref="C1:J100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1867,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="I2" s="2">
         <f>B2+(ROUND((D2/E2+H2)*D2,0))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2">
         <f>C2+ROUND((D2/F2+G2)*2.2*D2,0)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I3" s="2">
         <f>HP常数+(ROUND((D2/职业HP基值+职业HP系数)*D2,0))</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
         <f>C3+ROUND((D3/F3)*2.2*D3,0)</f>
@@ -1986,12 +1986,8 @@
       <c r="B4" s="1">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>22</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
         <v>4</v>
       </c>
@@ -2002,11 +1998,11 @@
       </c>
       <c r="I4" s="2">
         <f>B4+(ROUND((D2/E4+H4)*D2,0))</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2">
         <f>ROUND(D4*3.5,0)</f>
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
